--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H2">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50790399962251</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N2">
-        <v>1.50790399962251</v>
+        <v>5.354821</v>
       </c>
       <c r="O2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P2">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q2">
-        <v>7.454568646227598</v>
+        <v>9.995842575759667</v>
       </c>
       <c r="R2">
-        <v>7.454568646227598</v>
+        <v>89.962583181837</v>
       </c>
       <c r="S2">
-        <v>0.04471942896068216</v>
+        <v>0.05285438625579366</v>
       </c>
       <c r="T2">
-        <v>0.04471942896068216</v>
+        <v>0.05285438625579368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H3">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51059263684639</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N3">
-        <v>3.51059263684639</v>
+        <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P3">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q3">
-        <v>17.35518561318491</v>
+        <v>20.02436172918433</v>
       </c>
       <c r="R3">
-        <v>17.35518561318491</v>
+        <v>180.219255562659</v>
       </c>
       <c r="S3">
-        <v>0.1041125284319475</v>
+        <v>0.1058815543900867</v>
       </c>
       <c r="T3">
-        <v>0.1041125284319475</v>
+        <v>0.1058815543900867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H4">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.45710433948401</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N4">
-        <v>2.45710433948401</v>
+        <v>0.061213</v>
       </c>
       <c r="O4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P4">
-        <v>0.328683185122893</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q4">
-        <v>12.14709489079721</v>
+        <v>0.1142662866956667</v>
       </c>
       <c r="R4">
-        <v>12.14709489079721</v>
+        <v>1.028396580261</v>
       </c>
       <c r="S4">
-        <v>0.07286956131560535</v>
+        <v>0.0006041986363084587</v>
       </c>
       <c r="T4">
-        <v>0.07286956131560535</v>
+        <v>0.0006041986363084588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.4037948097371</v>
+        <v>5.600099</v>
       </c>
       <c r="H5">
-        <v>5.4037948097371</v>
+        <v>16.800297</v>
       </c>
       <c r="I5">
-        <v>0.2423364227676461</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J5">
-        <v>0.2423364227676461</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.50790399962251</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>1.50790399962251</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.2017100704643079</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P5">
-        <v>0.2017100704643079</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q5">
-        <v>8.148403806741934</v>
+        <v>0.112645991385</v>
       </c>
       <c r="R5">
-        <v>8.148403806741934</v>
+        <v>1.013813922465</v>
       </c>
       <c r="S5">
-        <v>0.0488816969125302</v>
+        <v>0.0005956311030015511</v>
       </c>
       <c r="T5">
-        <v>0.0488816969125302</v>
+        <v>0.0005956311030015512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.4037948097371</v>
+        <v>5.600099</v>
       </c>
       <c r="H6">
-        <v>5.4037948097371</v>
+        <v>16.800297</v>
       </c>
       <c r="I6">
-        <v>0.2423364227676461</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J6">
-        <v>0.2423364227676461</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.51059263684639</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N6">
-        <v>3.51059263684639</v>
+        <v>7.842206</v>
       </c>
       <c r="O6">
-        <v>0.4696067444127991</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P6">
-        <v>0.4696067444127991</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q6">
-        <v>18.9705222700918</v>
+        <v>14.63904332613133</v>
       </c>
       <c r="R6">
-        <v>18.9705222700918</v>
+        <v>131.751389935182</v>
       </c>
       <c r="S6">
-        <v>0.113802818548558</v>
+        <v>0.07740594597307783</v>
       </c>
       <c r="T6">
-        <v>0.113802818548558</v>
+        <v>0.07740594597307786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H7">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I7">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J7">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45710433948401</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N7">
-        <v>2.45710433948401</v>
+        <v>5.354821</v>
       </c>
       <c r="O7">
-        <v>0.328683185122893</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P7">
-        <v>0.328683185122893</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q7">
-        <v>13.2776876766862</v>
+        <v>10.00743873812522</v>
       </c>
       <c r="R7">
-        <v>13.2776876766862</v>
+        <v>90.06694864312699</v>
       </c>
       <c r="S7">
-        <v>0.0796519073065579</v>
+        <v>0.0529157025520547</v>
       </c>
       <c r="T7">
-        <v>0.0796519073065579</v>
+        <v>0.0529157025520547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.72823555972871</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H8">
-        <v>1.72823555972871</v>
+        <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.07750376133635464</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J8">
-        <v>0.07750376133635464</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.50790399962251</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N8">
-        <v>1.50790399962251</v>
+        <v>10.727147</v>
       </c>
       <c r="O8">
-        <v>0.2017100704643079</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P8">
-        <v>0.2017100704643079</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q8">
-        <v>2.606013312804769</v>
+        <v>20.04759196196544</v>
       </c>
       <c r="R8">
-        <v>2.606013312804769</v>
+        <v>180.428327657689</v>
       </c>
       <c r="S8">
-        <v>0.01563328916040499</v>
+        <v>0.1060043874266135</v>
       </c>
       <c r="T8">
-        <v>0.01563328916040499</v>
+        <v>0.1060043874266135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.72823555972871</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H9">
-        <v>1.72823555972871</v>
+        <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.07750376133635464</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J9">
-        <v>0.07750376133635464</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.51059263684639</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N9">
-        <v>3.51059263684639</v>
+        <v>0.061213</v>
       </c>
       <c r="O9">
-        <v>0.4696067444127991</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P9">
-        <v>0.4696067444127991</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q9">
-        <v>6.067131030719708</v>
+        <v>0.1143988468478889</v>
       </c>
       <c r="R9">
-        <v>6.067131030719708</v>
+        <v>1.029589621631</v>
       </c>
       <c r="S9">
-        <v>0.03639628904091208</v>
+        <v>0.0006048995662635454</v>
       </c>
       <c r="T9">
-        <v>0.03639628904091208</v>
+        <v>0.0006048995662635454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.72823555972871</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H10">
-        <v>1.72823555972871</v>
+        <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.07750376133635464</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J10">
-        <v>0.07750376133635464</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.45710433948401</v>
+        <v>0.020115</v>
       </c>
       <c r="N10">
-        <v>2.45710433948401</v>
+        <v>0.060345</v>
       </c>
       <c r="O10">
-        <v>0.328683185122893</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P10">
-        <v>0.328683185122893</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q10">
-        <v>4.24645509345999</v>
+        <v>0.112776671835</v>
       </c>
       <c r="R10">
-        <v>4.24645509345999</v>
+        <v>1.014990046515</v>
       </c>
       <c r="S10">
-        <v>0.02547418313503757</v>
+        <v>0.0005963220937737678</v>
       </c>
       <c r="T10">
-        <v>0.02547418313503757</v>
+        <v>0.0005963220937737678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.09952925420907</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H11">
-        <v>2.09952925420907</v>
+        <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.0941546499960096</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J11">
-        <v>0.0941546499960096</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.50790399962251</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N11">
-        <v>1.50790399962251</v>
+        <v>7.842206</v>
       </c>
       <c r="O11">
-        <v>0.2017100704643079</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P11">
-        <v>0.2017100704643079</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q11">
-        <v>3.165888559746323</v>
+        <v>14.65602605890244</v>
       </c>
       <c r="R11">
-        <v>3.165888559746323</v>
+        <v>131.904234530122</v>
       </c>
       <c r="S11">
-        <v>0.01899194108523734</v>
+        <v>0.07749574449789053</v>
       </c>
       <c r="T11">
-        <v>0.01899194108523734</v>
+        <v>0.07749574449789054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.09952925420907</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H12">
-        <v>2.09952925420907</v>
+        <v>5.321828</v>
       </c>
       <c r="I12">
-        <v>0.0941546499960096</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J12">
-        <v>0.0941546499960096</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.51059263684639</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N12">
-        <v>3.51059263684639</v>
+        <v>5.354821</v>
       </c>
       <c r="O12">
-        <v>0.4696067444127991</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P12">
-        <v>0.4696067444127991</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q12">
-        <v>7.370591940669954</v>
+        <v>3.166381814754222</v>
       </c>
       <c r="R12">
-        <v>7.370591940669954</v>
+        <v>28.497436332788</v>
       </c>
       <c r="S12">
-        <v>0.04421565865595264</v>
+        <v>0.01674267738831628</v>
       </c>
       <c r="T12">
-        <v>0.04421565865595264</v>
+        <v>0.01674267738831629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.09952925420907</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H13">
-        <v>2.09952925420907</v>
+        <v>5.321828</v>
       </c>
       <c r="I13">
-        <v>0.0941546499960096</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J13">
-        <v>0.0941546499960096</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.45710433948401</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N13">
-        <v>2.45710433948401</v>
+        <v>10.727147</v>
       </c>
       <c r="O13">
-        <v>0.328683185122893</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P13">
-        <v>0.328683185122893</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q13">
-        <v>5.158762441390733</v>
+        <v>6.343114584968445</v>
       </c>
       <c r="R13">
-        <v>5.158762441390733</v>
+        <v>57.088031264716</v>
       </c>
       <c r="S13">
-        <v>0.03094705025481962</v>
+        <v>0.03354008687088604</v>
       </c>
       <c r="T13">
-        <v>0.03094705025481962</v>
+        <v>0.03354008687088605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.44801918300207</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H14">
-        <v>2.44801918300207</v>
+        <v>5.321828</v>
       </c>
       <c r="I14">
-        <v>0.1097828900916686</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J14">
-        <v>0.1097828900916686</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.50790399962251</v>
+        <v>0.02040433333333333</v>
       </c>
       <c r="N14">
-        <v>1.50790399962251</v>
+        <v>0.061213</v>
       </c>
       <c r="O14">
-        <v>0.2017100704643079</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="P14">
-        <v>0.2017100704643079</v>
+        <v>0.002545690852746758</v>
       </c>
       <c r="Q14">
-        <v>3.69137791720145</v>
+        <v>0.03619611748488889</v>
       </c>
       <c r="R14">
-        <v>3.69137791720145</v>
+        <v>0.325765057364</v>
       </c>
       <c r="S14">
-        <v>0.02214431449616584</v>
+        <v>0.0001913919271943926</v>
       </c>
       <c r="T14">
-        <v>0.02214431449616584</v>
+        <v>0.0001913919271943926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.44801918300207</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H15">
-        <v>2.44801918300207</v>
+        <v>5.321828</v>
       </c>
       <c r="I15">
-        <v>0.1097828900916686</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J15">
-        <v>0.1097828900916686</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.51059263684639</v>
+        <v>0.020115</v>
       </c>
       <c r="N15">
-        <v>3.51059263684639</v>
+        <v>0.060345</v>
       </c>
       <c r="O15">
-        <v>0.4696067444127991</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="P15">
-        <v>0.4696067444127991</v>
+        <v>0.002509592970594532</v>
       </c>
       <c r="Q15">
-        <v>8.593998118705782</v>
+        <v>0.03568285674</v>
       </c>
       <c r="R15">
-        <v>8.593998118705782</v>
+        <v>0.32114571066</v>
       </c>
       <c r="S15">
-        <v>0.05155478560817663</v>
+        <v>0.0001886779907298388</v>
       </c>
       <c r="T15">
-        <v>0.05155478560817663</v>
+        <v>0.0001886779907298388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.44801918300207</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H16">
-        <v>2.44801918300207</v>
+        <v>5.321828</v>
       </c>
       <c r="I16">
-        <v>0.1097828900916686</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J16">
-        <v>0.1097828900916686</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.45710433948401</v>
+        <v>2.614068666666667</v>
       </c>
       <c r="N16">
-        <v>2.45710433948401</v>
+        <v>7.842206</v>
       </c>
       <c r="O16">
-        <v>0.328683185122893</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="P16">
-        <v>0.328683185122893</v>
+        <v>0.3261371290339591</v>
       </c>
       <c r="Q16">
-        <v>6.015038557694487</v>
+        <v>4.637207941396444</v>
       </c>
       <c r="R16">
-        <v>6.015038557694487</v>
+        <v>41.734871472568</v>
       </c>
       <c r="S16">
-        <v>0.03608378998732613</v>
+        <v>0.02451987191928886</v>
       </c>
       <c r="T16">
-        <v>0.03608378998732613</v>
+        <v>0.02451987191928887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.67549000880699</v>
+        <v>2.187066</v>
       </c>
       <c r="H17">
-        <v>5.67549000880699</v>
+        <v>6.561198</v>
       </c>
       <c r="I17">
-        <v>0.254520757100086</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J17">
-        <v>0.254520757100086</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.50790399962251</v>
+        <v>1.784940333333333</v>
       </c>
       <c r="N17">
-        <v>1.50790399962251</v>
+        <v>5.354821</v>
       </c>
       <c r="O17">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744963</v>
       </c>
       <c r="P17">
-        <v>0.2017100704643079</v>
+        <v>0.2226931997744964</v>
       </c>
       <c r="Q17">
-        <v>8.558094084097656</v>
+        <v>3.903782315062001</v>
       </c>
       <c r="R17">
-        <v>8.558094084097656</v>
+        <v>35.134040835558</v>
       </c>
       <c r="S17">
-        <v>0.05133939984928734</v>
+        <v>0.02064178349899057</v>
       </c>
       <c r="T17">
-        <v>0.05133939984928734</v>
+        <v>0.02064178349899058</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.67549000880699</v>
+        <v>2.187066</v>
       </c>
       <c r="H18">
-        <v>5.67549000880699</v>
+        <v>6.561198</v>
       </c>
       <c r="I18">
-        <v>0.254520757100086</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J18">
-        <v>0.254520757100086</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.51059263684639</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N18">
-        <v>3.51059263684639</v>
+        <v>10.727147</v>
       </c>
       <c r="O18">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="P18">
-        <v>0.4696067444127991</v>
+        <v>0.4461143873682032</v>
       </c>
       <c r="Q18">
-        <v>19.92433343541307</v>
+        <v>7.820326160234001</v>
       </c>
       <c r="R18">
-        <v>19.92433343541307</v>
+        <v>70.382935442106</v>
       </c>
       <c r="S18">
-        <v>0.1195246641272522</v>
+        <v>0.04135104533575375</v>
       </c>
       <c r="T18">
-        <v>0.1195246641272522</v>
+        <v>0.04135104533575377</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.187066</v>
+      </c>
+      <c r="H19">
+        <v>6.561198</v>
+      </c>
+      <c r="I19">
+        <v>0.09269157531479572</v>
+      </c>
+      <c r="J19">
+        <v>0.09269157531479573</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.061213</v>
+      </c>
+      <c r="O19">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P19">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q19">
+        <v>0.044625623686</v>
+      </c>
+      <c r="R19">
+        <v>0.401630613174</v>
+      </c>
+      <c r="S19">
+        <v>0.0002359640954055626</v>
+      </c>
+      <c r="T19">
+        <v>0.0002359640954055626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.187066</v>
+      </c>
+      <c r="H20">
+        <v>6.561198</v>
+      </c>
+      <c r="I20">
+        <v>0.09269157531479572</v>
+      </c>
+      <c r="J20">
+        <v>0.09269157531479573</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.020115</v>
+      </c>
+      <c r="N20">
+        <v>0.060345</v>
+      </c>
+      <c r="O20">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P20">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q20">
+        <v>0.04399283259</v>
+      </c>
+      <c r="R20">
+        <v>0.39593549331</v>
+      </c>
+      <c r="S20">
+        <v>0.000232618125843345</v>
+      </c>
+      <c r="T20">
+        <v>0.000232618125843345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.187066</v>
+      </c>
+      <c r="H21">
+        <v>6.561198</v>
+      </c>
+      <c r="I21">
+        <v>0.09269157531479572</v>
+      </c>
+      <c r="J21">
+        <v>0.09269157531479573</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.842206</v>
+      </c>
+      <c r="O21">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P21">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q21">
+        <v>5.717140702532001</v>
+      </c>
+      <c r="R21">
+        <v>51.454266322788</v>
+      </c>
+      <c r="S21">
+        <v>0.03023016425880247</v>
+      </c>
+      <c r="T21">
+        <v>0.03023016425880248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.472614</v>
+      </c>
+      <c r="H22">
+        <v>7.417842</v>
+      </c>
+      <c r="I22">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="J22">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N22">
+        <v>5.354821</v>
+      </c>
+      <c r="O22">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P22">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q22">
+        <v>4.413468457364667</v>
+      </c>
+      <c r="R22">
+        <v>39.721216116282</v>
+      </c>
+      <c r="S22">
+        <v>0.02333681876293312</v>
+      </c>
+      <c r="T22">
+        <v>0.02333681876293312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.472614</v>
+      </c>
+      <c r="H23">
+        <v>7.417842</v>
+      </c>
+      <c r="I23">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="J23">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N23">
+        <v>10.727147</v>
+      </c>
+      <c r="O23">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P23">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q23">
+        <v>8.841364617419334</v>
+      </c>
+      <c r="R23">
+        <v>79.572281556774</v>
+      </c>
+      <c r="S23">
+        <v>0.04674992597928889</v>
+      </c>
+      <c r="T23">
+        <v>0.0467499259792889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.472614</v>
+      </c>
+      <c r="H24">
+        <v>7.417842</v>
+      </c>
+      <c r="I24">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="J24">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.061213</v>
+      </c>
+      <c r="O24">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P24">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q24">
+        <v>0.05045204026066667</v>
+      </c>
+      <c r="R24">
+        <v>0.454068362346</v>
+      </c>
+      <c r="S24">
+        <v>0.0002667720708003918</v>
+      </c>
+      <c r="T24">
+        <v>0.0002667720708003918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.472614</v>
+      </c>
+      <c r="H25">
+        <v>7.417842</v>
+      </c>
+      <c r="I25">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="J25">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.020115</v>
+      </c>
+      <c r="N25">
+        <v>0.060345</v>
+      </c>
+      <c r="O25">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P25">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q25">
+        <v>0.04973663061000001</v>
+      </c>
+      <c r="R25">
+        <v>0.44762967549</v>
+      </c>
+      <c r="S25">
+        <v>0.0002629892443181946</v>
+      </c>
+      <c r="T25">
+        <v>0.0002629892443181946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.67549000880699</v>
-      </c>
-      <c r="H19">
-        <v>5.67549000880699</v>
-      </c>
-      <c r="I19">
-        <v>0.254520757100086</v>
-      </c>
-      <c r="J19">
-        <v>0.254520757100086</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.45710433948401</v>
-      </c>
-      <c r="N19">
-        <v>2.45710433948401</v>
-      </c>
-      <c r="O19">
-        <v>0.328683185122893</v>
-      </c>
-      <c r="P19">
-        <v>0.328683185122893</v>
-      </c>
-      <c r="Q19">
-        <v>13.9452711293378</v>
-      </c>
-      <c r="R19">
-        <v>13.9452711293378</v>
-      </c>
-      <c r="S19">
-        <v>0.08365669312354647</v>
-      </c>
-      <c r="T19">
-        <v>0.08365669312354647</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.472614</v>
+      </c>
+      <c r="H26">
+        <v>7.417842</v>
+      </c>
+      <c r="I26">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="J26">
+        <v>0.1047935850154583</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.842206</v>
+      </c>
+      <c r="O26">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P26">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q26">
+        <v>6.463582782161334</v>
+      </c>
+      <c r="R26">
+        <v>58.172245039452</v>
+      </c>
+      <c r="S26">
+        <v>0.03417707895811768</v>
+      </c>
+      <c r="T26">
+        <v>0.03417707895811769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.954772000000001</v>
+      </c>
+      <c r="H27">
+        <v>17.864316</v>
+      </c>
+      <c r="I27">
+        <v>0.2523733610784662</v>
+      </c>
+      <c r="J27">
+        <v>0.2523733610784663</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.784940333333333</v>
+      </c>
+      <c r="N27">
+        <v>5.354821</v>
+      </c>
+      <c r="O27">
+        <v>0.2226931997744963</v>
+      </c>
+      <c r="P27">
+        <v>0.2226931997744964</v>
+      </c>
+      <c r="Q27">
+        <v>10.628912718604</v>
+      </c>
+      <c r="R27">
+        <v>95.66021446743602</v>
+      </c>
+      <c r="S27">
+        <v>0.05620183131640797</v>
+      </c>
+      <c r="T27">
+        <v>0.05620183131640799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.954772000000001</v>
+      </c>
+      <c r="H28">
+        <v>17.864316</v>
+      </c>
+      <c r="I28">
+        <v>0.2523733610784662</v>
+      </c>
+      <c r="J28">
+        <v>0.2523733610784663</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.575715666666667</v>
+      </c>
+      <c r="N28">
+        <v>10.727147</v>
+      </c>
+      <c r="O28">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="P28">
+        <v>0.4461143873682032</v>
+      </c>
+      <c r="Q28">
+        <v>21.29257153182801</v>
+      </c>
+      <c r="R28">
+        <v>191.633143786452</v>
+      </c>
+      <c r="S28">
+        <v>0.1125873873655743</v>
+      </c>
+      <c r="T28">
+        <v>0.1125873873655743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.954772000000001</v>
+      </c>
+      <c r="H29">
+        <v>17.864316</v>
+      </c>
+      <c r="I29">
+        <v>0.2523733610784662</v>
+      </c>
+      <c r="J29">
+        <v>0.2523733610784663</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.02040433333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.061213</v>
+      </c>
+      <c r="O29">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="P29">
+        <v>0.002545690852746758</v>
+      </c>
+      <c r="Q29">
+        <v>0.121503152812</v>
+      </c>
+      <c r="R29">
+        <v>1.093528375308</v>
+      </c>
+      <c r="S29">
+        <v>0.0006424645567744059</v>
+      </c>
+      <c r="T29">
+        <v>0.0006424645567744061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.954772000000001</v>
+      </c>
+      <c r="H30">
+        <v>17.864316</v>
+      </c>
+      <c r="I30">
+        <v>0.2523733610784662</v>
+      </c>
+      <c r="J30">
+        <v>0.2523733610784663</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.020115</v>
+      </c>
+      <c r="N30">
+        <v>0.060345</v>
+      </c>
+      <c r="O30">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="P30">
+        <v>0.002509592970594532</v>
+      </c>
+      <c r="Q30">
+        <v>0.11978023878</v>
+      </c>
+      <c r="R30">
+        <v>1.07802214902</v>
+      </c>
+      <c r="S30">
+        <v>0.0006333544129278344</v>
+      </c>
+      <c r="T30">
+        <v>0.0006333544129278345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.954772000000001</v>
+      </c>
+      <c r="H31">
+        <v>17.864316</v>
+      </c>
+      <c r="I31">
+        <v>0.2523733610784662</v>
+      </c>
+      <c r="J31">
+        <v>0.2523733610784663</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.614068666666667</v>
+      </c>
+      <c r="N31">
+        <v>7.842206</v>
+      </c>
+      <c r="O31">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="P31">
+        <v>0.3261371290339591</v>
+      </c>
+      <c r="Q31">
+        <v>15.566182902344</v>
+      </c>
+      <c r="R31">
+        <v>140.095646121096</v>
+      </c>
+      <c r="S31">
+        <v>0.08230832342678168</v>
+      </c>
+      <c r="T31">
+        <v>0.08230832342678171</v>
       </c>
     </row>
   </sheetData>
